--- a/controller/src/main/resources/jxls_templates/buwaizichan.xlsx
+++ b/controller/src/main/resources/jxls_templates/buwaizichan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ying/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ying/IdeaProjects/newparkcloud/controller/src/main/resources/jxls_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>名称</t>
   </si>
@@ -107,9 +107,6 @@
     <t>PSDCD_带出理由</t>
   </si>
   <si>
-    <t>PSDCD_期间</t>
-  </si>
-  <si>
     <t>PSDCD_对方单位</t>
   </si>
   <si>
@@ -122,6 +119,59 @@
     <t>标签号</t>
     <rPh sb="0" eb="1">
       <t>biao'qian'hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用部门</t>
+    <rPh sb="0" eb="1">
+      <t>shi'y</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu'm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门代码</t>
+    <rPh sb="0" eb="1">
+      <t>bu'm</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai'ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSDCD_预计归还日</t>
+    <rPh sb="6" eb="7">
+      <t>yu'ji</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gui'huan'r</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSDCD_带出开始日</t>
+    <rPh sb="6" eb="7">
+      <t>dai'c</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>kai's</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ri</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSDCD_是否逾期</t>
+    <rPh sb="6" eb="7">
+      <t>s'fou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yu'qi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -527,7 +577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,14 +590,15 @@
     <col min="5" max="5" width="24.83203125" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" customWidth="1"/>
     <col min="7" max="8" width="8.83203125" customWidth="1"/>
-    <col min="15" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.6640625" customWidth="1"/>
+    <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -582,7 +633,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>11</v>
@@ -590,23 +641,35 @@
       <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
